--- a/data/trans_orig/P36B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38672541-18D2-417D-8F9E-90A2E3396CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0905CBB-2905-400B-87F3-D70A049F4C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DB8CA72-7345-4701-8287-A6545DCC106E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CB75C3D-7DD5-4D84-AAFD-5BA6C0168AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="298">
-  <si>
-    <t>Población según la frecuencia de consumición de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="303">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>25,35%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,829 +104,844 @@
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1341,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147C2546-1297-441C-8539-4393007B3A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D622A74-83F3-40CE-BFD9-8E4B08A019BA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,13 +1618,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -1618,13 +1633,13 @@
         <v>19424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -1633,13 +1648,13 @@
         <v>17178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1648,19 +1663,19 @@
         <v>36602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>233</v>
@@ -1669,13 +1684,13 @@
         <v>247451</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>253</v>
@@ -1684,13 +1699,13 @@
         <v>249348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -1699,13 +1714,13 @@
         <v>496799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1735,13 @@
         <v>419463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>403</v>
@@ -1735,13 +1750,13 @@
         <v>394759</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>796</v>
@@ -1750,18 +1765,18 @@
         <v>814222</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1773,13 +1788,13 @@
         <v>96025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -1788,13 +1803,13 @@
         <v>89017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -1803,13 +1818,13 @@
         <v>185042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1839,13 @@
         <v>9798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1839,13 +1854,13 @@
         <v>11104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1854,13 +1869,13 @@
         <v>20902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1890,13 @@
         <v>14139</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -1890,13 +1905,13 @@
         <v>15880</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -1905,19 +1920,19 @@
         <v>30019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>27</v>
@@ -1926,13 +1941,13 @@
         <v>28131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1941,13 +1956,13 @@
         <v>12465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -1956,19 +1971,19 @@
         <v>40596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>422</v>
@@ -1977,13 +1992,13 @@
         <v>441452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -1992,13 +2007,13 @@
         <v>432142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -2007,13 +2022,13 @@
         <v>873594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2043,13 @@
         <v>589545</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>576</v>
@@ -2043,13 +2058,13 @@
         <v>560608</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1142</v>
@@ -2058,18 +2073,18 @@
         <v>1150153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2096,13 @@
         <v>81403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -2096,13 +2111,13 @@
         <v>55622</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2111,13 +2126,13 @@
         <v>137026</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2147,13 @@
         <v>7317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2147,13 +2162,13 @@
         <v>4123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2162,13 +2177,13 @@
         <v>11439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2198,13 @@
         <v>15043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2198,13 +2213,13 @@
         <v>5564</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2213,19 +2228,19 @@
         <v>20606</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>11</v>
@@ -2234,13 +2249,13 @@
         <v>11280</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2249,13 +2264,13 @@
         <v>14053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2264,19 +2279,19 @@
         <v>25333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>530</v>
@@ -2285,13 +2300,13 @@
         <v>554054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>581</v>
@@ -2300,13 +2315,13 @@
         <v>578144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1111</v>
@@ -2315,13 +2330,13 @@
         <v>1132198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2351,13 @@
         <v>669097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2351,13 +2366,13 @@
         <v>657506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1299</v>
@@ -2366,18 +2381,18 @@
         <v>1326603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2389,13 +2404,13 @@
         <v>53958</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2404,13 +2419,13 @@
         <v>46284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2419,13 +2434,13 @@
         <v>100242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2455,13 @@
         <v>9359</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2455,13 +2470,13 @@
         <v>8649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2470,13 +2485,13 @@
         <v>18008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2506,13 @@
         <v>6048</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -2506,13 +2521,13 @@
         <v>6949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2521,19 +2536,19 @@
         <v>12996</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>7</v>
@@ -2542,13 +2557,13 @@
         <v>7718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2557,13 +2572,13 @@
         <v>9433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2572,19 +2587,19 @@
         <v>17151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>511</v>
@@ -2593,13 +2608,13 @@
         <v>568966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>533</v>
@@ -2608,13 +2623,13 @@
         <v>576650</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>1044</v>
@@ -2623,13 +2638,13 @@
         <v>1145616</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2659,13 @@
         <v>646048</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>601</v>
@@ -2659,13 +2674,13 @@
         <v>647965</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1183</v>
@@ -2674,18 +2689,18 @@
         <v>1294013</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2697,13 +2712,13 @@
         <v>51270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -2712,13 +2727,13 @@
         <v>46581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -2727,13 +2742,13 @@
         <v>97851</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2763,13 @@
         <v>6805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2763,13 +2778,13 @@
         <v>2165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2778,13 +2793,13 @@
         <v>8969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2814,13 @@
         <v>8917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2814,13 +2829,13 @@
         <v>4287</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2829,19 +2844,19 @@
         <v>13204</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>8</v>
@@ -2850,13 +2865,13 @@
         <v>9565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -2865,13 +2880,13 @@
         <v>10224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -2880,19 +2895,19 @@
         <v>19789</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>359</v>
@@ -2901,13 +2916,13 @@
         <v>401362</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>377</v>
@@ -2916,13 +2931,13 @@
         <v>433592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>736</v>
@@ -2931,13 +2946,13 @@
         <v>834953</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2967,13 @@
         <v>477918</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>433</v>
@@ -2967,13 +2982,13 @@
         <v>496849</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>857</v>
@@ -2982,18 +2997,18 @@
         <v>974767</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3005,13 +3020,13 @@
         <v>86284</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
@@ -3020,13 +3035,13 @@
         <v>119177</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>196</v>
@@ -3035,13 +3050,13 @@
         <v>205461</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3071,13 @@
         <v>11013</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -3071,13 +3086,13 @@
         <v>6242</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3086,13 +3101,13 @@
         <v>17255</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3122,13 @@
         <v>955</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3122,13 +3137,13 @@
         <v>7620</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3137,19 +3152,19 @@
         <v>8575</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>7</v>
@@ -3158,13 +3173,13 @@
         <v>6550</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -3173,13 +3188,13 @@
         <v>7823</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -3188,19 +3203,19 @@
         <v>14373</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>511</v>
@@ -3209,13 +3224,13 @@
         <v>483845</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H38" s="7">
         <v>533</v>
@@ -3224,13 +3239,13 @@
         <v>634659</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>1044</v>
@@ -3239,13 +3254,13 @@
         <v>1118504</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3275,13 @@
         <v>588647</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>653</v>
@@ -3275,13 +3290,13 @@
         <v>775521</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>1278</v>
@@ -3290,13 +3305,13 @@
         <v>1364168</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3328,13 @@
         <v>475255</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>438</v>
@@ -3328,13 +3343,13 @@
         <v>455464</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>893</v>
@@ -3343,13 +3358,13 @@
         <v>930719</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3379,13 @@
         <v>64769</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -3379,13 +3394,13 @@
         <v>48260</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M41" s="7">
         <v>111</v>
@@ -3394,13 +3409,13 @@
         <v>113029</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3430,13 @@
         <v>70897</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -3430,13 +3445,13 @@
         <v>53772</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M42" s="7">
         <v>119</v>
@@ -3445,19 +3460,19 @@
         <v>124669</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>78</v>
@@ -3466,13 +3481,13 @@
         <v>82669</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H43" s="7">
         <v>67</v>
@@ -3481,13 +3496,13 @@
         <v>71177</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M43" s="7">
         <v>145</v>
@@ -3496,19 +3511,19 @@
         <v>153846</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>2566</v>
@@ -3517,28 +3532,28 @@
         <v>2697129</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H44" s="7">
         <v>2721</v>
       </c>
       <c r="I44" s="7">
-        <v>2904535</v>
+        <v>2904536</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M44" s="7">
         <v>5287</v>
@@ -3547,13 +3562,13 @@
         <v>5601664</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,28 +3583,28 @@
         <v>3390718</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>3327</v>
       </c>
       <c r="I45" s="7">
-        <v>3533208</v>
+        <v>3533209</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>6555</v>
@@ -3598,18 +3613,18 @@
         <v>6923926</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0905CBB-2905-400B-87F3-D70A049F4C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F2576E-3109-4D89-8FB7-A4FBA5313B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CB75C3D-7DD5-4D84-AAFD-5BA6C0168AFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A91F6CB7-E180-4E88-B7CB-4D878B713016}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="303">
-  <si>
-    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="302">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>25,35%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,844 +104,841 @@
     <t>4,88%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>3,01%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,85%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1356,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D622A74-83F3-40CE-BFD9-8E4B08A019BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D9F94F-02A5-4311-80AC-49514EC57BEA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1977,7 +1974,7 @@
         <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1989,13 @@
         <v>441452</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -2007,13 +2004,13 @@
         <v>432142</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -2022,13 +2019,13 @@
         <v>873594</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2081,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2096,13 +2093,13 @@
         <v>81403</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -2111,13 +2108,13 @@
         <v>55622</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2126,13 +2123,13 @@
         <v>137026</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2144,13 @@
         <v>7317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2228,13 +2225,13 @@
         <v>20606</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2246,13 @@
         <v>11280</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2264,13 +2261,13 @@
         <v>14053</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2279,13 +2276,13 @@
         <v>25333</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2297,13 @@
         <v>554054</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>581</v>
@@ -2315,13 +2312,13 @@
         <v>578144</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1111</v>
@@ -2330,13 +2327,13 @@
         <v>1132198</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2389,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2404,13 +2401,13 @@
         <v>53958</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2419,13 +2416,13 @@
         <v>46284</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2434,13 +2431,13 @@
         <v>100242</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2452,13 @@
         <v>9359</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2476,7 +2473,7 @@
         <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2488,10 +2485,10 @@
         <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2503,13 @@
         <v>6048</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -2521,10 +2518,10 @@
         <v>6949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>172</v>
@@ -2539,10 +2536,10 @@
         <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2554,13 @@
         <v>7718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2778,13 +2775,13 @@
         <v>2165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2793,13 +2790,13 @@
         <v>8969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2811,13 @@
         <v>8917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2832,10 +2829,10 @@
         <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2844,13 +2841,13 @@
         <v>13204</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2862,7 @@
         <v>9565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>215</v>
@@ -2880,13 +2877,13 @@
         <v>10224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -2895,13 +2892,13 @@
         <v>19789</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2913,13 @@
         <v>401362</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>377</v>
@@ -2931,13 +2928,13 @@
         <v>433592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>736</v>
@@ -2946,13 +2943,13 @@
         <v>834953</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +3005,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3017,13 @@
         <v>86284</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
@@ -3035,13 +3032,13 @@
         <v>119177</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>196</v>
@@ -3050,13 +3047,13 @@
         <v>205461</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3068,13 @@
         <v>11013</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -3086,13 +3083,13 @@
         <v>6242</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3125,10 +3122,10 @@
         <v>120</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3137,13 +3134,13 @@
         <v>7620</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3155,10 +3152,10 @@
         <v>119</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3170,13 @@
         <v>6550</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -3188,13 +3185,13 @@
         <v>7823</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -3203,13 +3200,13 @@
         <v>14373</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3221,13 @@
         <v>483845</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>533</v>
@@ -3239,13 +3236,13 @@
         <v>634659</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>1044</v>
@@ -3254,13 +3251,13 @@
         <v>1118504</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3325,13 @@
         <v>475255</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>438</v>
@@ -3343,13 +3340,13 @@
         <v>455464</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="M40" s="7">
         <v>893</v>
@@ -3358,13 +3355,13 @@
         <v>930719</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3376,13 @@
         <v>64769</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -3394,13 +3391,13 @@
         <v>48260</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="M41" s="7">
         <v>111</v>
@@ -3412,10 +3409,10 @@
         <v>281</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3427,13 @@
         <v>70897</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -3445,13 +3442,13 @@
         <v>53772</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="M42" s="7">
         <v>119</v>
@@ -3460,13 +3457,13 @@
         <v>124669</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3478,13 @@
         <v>82669</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H43" s="7">
         <v>67</v>
@@ -3496,13 +3493,13 @@
         <v>71177</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="M43" s="7">
         <v>145</v>
@@ -3514,10 +3511,10 @@
         <v>92</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,28 +3529,28 @@
         <v>2697129</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H44" s="7">
         <v>2721</v>
       </c>
       <c r="I44" s="7">
-        <v>2904536</v>
+        <v>2904535</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M44" s="7">
         <v>5287</v>
@@ -3562,13 +3559,13 @@
         <v>5601664</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3592,7 @@
         <v>3327</v>
       </c>
       <c r="I45" s="7">
-        <v>3533209</v>
+        <v>3533208</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -3624,7 +3621,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F2576E-3109-4D89-8FB7-A4FBA5313B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB0B0EC-4CC5-40CC-AD41-35F8710AD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A91F6CB7-E180-4E88-B7CB-4D878B713016}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B241A8A6-063A-4B29-934C-F36132EF93E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="298">
   <si>
     <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,35%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,841 +104,829 @@
     <t>4,88%</t>
   </si>
   <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1353,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D9F94F-02A5-4311-80AC-49514EC57BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33114B0-907B-467C-87D6-B8C7A4DA67FB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,13 +1603,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -1630,13 +1618,13 @@
         <v>19424</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -1645,13 +1633,13 @@
         <v>17178</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1660,19 +1648,19 @@
         <v>36602</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>233</v>
@@ -1681,13 +1669,13 @@
         <v>247451</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>253</v>
@@ -1696,13 +1684,13 @@
         <v>249348</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -1711,13 +1699,13 @@
         <v>496799</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,13 +1720,13 @@
         <v>419463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>403</v>
@@ -1747,13 +1735,13 @@
         <v>394759</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>796</v>
@@ -1762,18 +1750,18 @@
         <v>814222</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1785,13 +1773,13 @@
         <v>96025</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -1800,13 +1788,13 @@
         <v>89017</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -1815,13 +1803,13 @@
         <v>185042</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1824,13 @@
         <v>9798</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1851,13 +1839,13 @@
         <v>11104</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1866,13 +1854,13 @@
         <v>20902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1875,13 @@
         <v>14139</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -1902,13 +1890,13 @@
         <v>15880</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -1917,19 +1905,19 @@
         <v>30019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>27</v>
@@ -1938,13 +1926,13 @@
         <v>28131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1953,13 +1941,13 @@
         <v>12465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -1968,19 +1956,19 @@
         <v>40596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>422</v>
@@ -1989,13 +1977,13 @@
         <v>441452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -2004,13 +1992,13 @@
         <v>432142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -2019,13 +2007,13 @@
         <v>873594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2028,13 @@
         <v>589545</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>576</v>
@@ -2055,13 +2043,13 @@
         <v>560608</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1142</v>
@@ -2070,18 +2058,18 @@
         <v>1150153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2093,13 +2081,13 @@
         <v>81403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -2108,13 +2096,13 @@
         <v>55622</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2123,13 +2111,13 @@
         <v>137026</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2132,13 @@
         <v>7317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2159,13 +2147,13 @@
         <v>4123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2174,13 +2162,13 @@
         <v>11439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2183,13 @@
         <v>15043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2210,13 +2198,13 @@
         <v>5564</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2225,19 +2213,19 @@
         <v>20606</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>11</v>
@@ -2249,10 +2237,10 @@
         <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2261,13 +2249,13 @@
         <v>14053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2276,19 +2264,19 @@
         <v>25333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>530</v>
@@ -2297,13 +2285,13 @@
         <v>554054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>581</v>
@@ -2312,13 +2300,13 @@
         <v>578144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>1111</v>
@@ -2327,13 +2315,13 @@
         <v>1132198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2336,13 @@
         <v>669097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2363,13 +2351,13 @@
         <v>657506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1299</v>
@@ -2378,18 +2366,18 @@
         <v>1326603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2401,13 +2389,13 @@
         <v>53958</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2416,13 +2404,13 @@
         <v>46284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2431,13 +2419,13 @@
         <v>100242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2440,13 @@
         <v>9359</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2467,13 +2455,13 @@
         <v>8649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2482,13 +2470,13 @@
         <v>18008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2491,13 @@
         <v>6048</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -2518,13 +2506,13 @@
         <v>6949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2533,19 +2521,19 @@
         <v>12996</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>7</v>
@@ -2554,13 +2542,13 @@
         <v>7718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2569,13 +2557,13 @@
         <v>9433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2584,19 +2572,19 @@
         <v>17151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>511</v>
@@ -2605,13 +2593,13 @@
         <v>568966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>533</v>
@@ -2620,13 +2608,13 @@
         <v>576650</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1044</v>
@@ -2635,13 +2623,13 @@
         <v>1145616</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2644,13 @@
         <v>646048</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>601</v>
@@ -2671,13 +2659,13 @@
         <v>647965</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1183</v>
@@ -2686,18 +2674,18 @@
         <v>1294013</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2709,13 +2697,13 @@
         <v>51270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -2724,13 +2712,13 @@
         <v>46581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -2739,13 +2727,13 @@
         <v>97851</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2748,13 @@
         <v>6805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2775,13 +2763,13 @@
         <v>2165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2790,13 +2778,13 @@
         <v>8969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2799,13 @@
         <v>8917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2826,13 +2814,13 @@
         <v>4287</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2841,19 +2829,19 @@
         <v>13204</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>8</v>
@@ -2862,13 +2850,13 @@
         <v>9565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -2877,13 +2865,13 @@
         <v>10224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -2892,19 +2880,19 @@
         <v>19789</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>359</v>
@@ -2913,13 +2901,13 @@
         <v>401362</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>377</v>
@@ -2928,13 +2916,13 @@
         <v>433592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>736</v>
@@ -2943,13 +2931,13 @@
         <v>834953</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2952,13 @@
         <v>477918</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>433</v>
@@ -2979,13 +2967,13 @@
         <v>496849</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>857</v>
@@ -2994,18 +2982,18 @@
         <v>974767</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3017,13 +3005,13 @@
         <v>86284</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
@@ -3032,13 +3020,13 @@
         <v>119177</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>196</v>
@@ -3047,13 +3035,13 @@
         <v>205461</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3056,13 @@
         <v>11013</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -3083,13 +3071,13 @@
         <v>6242</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3098,13 +3086,13 @@
         <v>17255</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3107,13 @@
         <v>955</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3134,13 +3122,13 @@
         <v>7620</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3149,19 +3137,19 @@
         <v>8575</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>7</v>
@@ -3170,13 +3158,13 @@
         <v>6550</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -3185,13 +3173,13 @@
         <v>7823</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -3200,19 +3188,19 @@
         <v>14373</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>511</v>
@@ -3221,13 +3209,13 @@
         <v>483845</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>533</v>
@@ -3236,13 +3224,13 @@
         <v>634659</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>1044</v>
@@ -3251,13 +3239,13 @@
         <v>1118504</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3260,13 @@
         <v>588647</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>653</v>
@@ -3287,13 +3275,13 @@
         <v>775521</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>1278</v>
@@ -3302,13 +3290,13 @@
         <v>1364168</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3313,13 @@
         <v>475255</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H40" s="7">
         <v>438</v>
@@ -3340,13 +3328,13 @@
         <v>455464</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="M40" s="7">
         <v>893</v>
@@ -3355,13 +3343,13 @@
         <v>930719</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3364,13 @@
         <v>64769</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -3391,13 +3379,13 @@
         <v>48260</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="M41" s="7">
         <v>111</v>
@@ -3406,13 +3394,13 @@
         <v>113029</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3415,13 @@
         <v>70897</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -3442,13 +3430,13 @@
         <v>53772</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="M42" s="7">
         <v>119</v>
@@ -3457,19 +3445,19 @@
         <v>124669</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>78</v>
@@ -3478,13 +3466,13 @@
         <v>82669</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H43" s="7">
         <v>67</v>
@@ -3493,13 +3481,13 @@
         <v>71177</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="M43" s="7">
         <v>145</v>
@@ -3508,19 +3496,19 @@
         <v>153846</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>2566</v>
@@ -3529,13 +3517,13 @@
         <v>2697129</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>2721</v>
@@ -3544,13 +3532,13 @@
         <v>2904535</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>5287</v>
@@ -3559,13 +3547,13 @@
         <v>5601664</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3568,13 @@
         <v>3390718</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>3327</v>
@@ -3595,13 +3583,13 @@
         <v>3533208</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>6555</v>
@@ -3610,18 +3598,18 @@
         <v>6923926</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB0B0EC-4CC5-40CC-AD41-35F8710AD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11841531-F896-4C13-A723-FAADAFA97ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B241A8A6-063A-4B29-934C-F36132EF93E6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{56F981AC-8650-4C85-8CCD-17887475170C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="333">
   <si>
     <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -215,7 +215,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>16,29%</t>
@@ -344,7 +344,7 @@
     <t>78,53%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>12,17%</t>
@@ -479,7 +479,7 @@
     <t>87,17%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>8,35%</t>
@@ -602,7 +602,7 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>10,73%</t>
@@ -710,181 +710,286 @@
     <t>83,11%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
   </si>
   <si>
     <t>2,44%</t>
@@ -1341,8 +1446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33114B0-907B-467C-87D6-B8C7A4DA67FB}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3841952B-C9E8-46D9-8C17-63E64D1A5C34}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2999,10 +3104,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D34" s="7">
-        <v>86284</v>
+        <v>42518</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>225</v>
@@ -3014,10 +3119,10 @@
         <v>227</v>
       </c>
       <c r="H34" s="7">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="I34" s="7">
-        <v>119177</v>
+        <v>46100</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>228</v>
@@ -3029,10 +3134,10 @@
         <v>230</v>
       </c>
       <c r="M34" s="7">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="N34" s="7">
-        <v>205461</v>
+        <v>88618</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>231</v>
@@ -3050,28 +3155,28 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>11013</v>
+        <v>7746</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3823</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H35" s="7">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7">
-        <v>6242</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>236</v>
@@ -3080,19 +3185,19 @@
         <v>237</v>
       </c>
       <c r="M35" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>17255</v>
+        <v>11569</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,43 +3212,43 @@
         <v>955</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>7620</v>
+        <v>3062</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>8575</v>
+        <v>4017</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3257,13 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>6550</v>
+        <v>3049</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>245</v>
@@ -3167,34 +3272,34 @@
         <v>246</v>
       </c>
       <c r="H37" s="7">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3685</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M37" s="7">
         <v>6</v>
       </c>
-      <c r="I37" s="7">
-        <v>7823</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" s="7">
-        <v>13</v>
-      </c>
       <c r="N37" s="7">
-        <v>14373</v>
+        <v>6734</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3308,49 @@
         <v>48</v>
       </c>
       <c r="C38" s="7">
-        <v>511</v>
+        <v>269</v>
       </c>
       <c r="D38" s="7">
-        <v>483845</v>
+        <v>277380</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
-        <v>533</v>
+        <v>298</v>
       </c>
       <c r="I38" s="7">
-        <v>634659</v>
+        <v>321092</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
-        <v>1044</v>
+        <v>567</v>
       </c>
       <c r="N38" s="7">
-        <v>1118504</v>
+        <v>598472</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,10 +3359,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>625</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7">
-        <v>588647</v>
+        <v>331649</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3269,10 +3374,10 @@
         <v>58</v>
       </c>
       <c r="H39" s="7">
-        <v>653</v>
+        <v>354</v>
       </c>
       <c r="I39" s="7">
-        <v>775521</v>
+        <v>377762</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -3284,10 +3389,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>1278</v>
+        <v>677</v>
       </c>
       <c r="N39" s="7">
-        <v>1364168</v>
+        <v>709411</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -3301,55 +3406,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>455</v>
+        <v>52</v>
       </c>
       <c r="D40" s="7">
-        <v>475255</v>
+        <v>43765</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H40" s="7">
-        <v>438</v>
+        <v>56</v>
       </c>
       <c r="I40" s="7">
-        <v>455464</v>
+        <v>73077</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M40" s="7">
-        <v>893</v>
+        <v>108</v>
       </c>
       <c r="N40" s="7">
-        <v>930719</v>
+        <v>116843</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,49 +3463,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7">
-        <v>64769</v>
+        <v>3267</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2420</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="7">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7">
+        <v>5686</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H41" s="7">
-        <v>48</v>
-      </c>
-      <c r="I41" s="7">
-        <v>48260</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M41" s="7">
-        <v>111</v>
-      </c>
-      <c r="N41" s="7">
-        <v>113029</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3514,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>70897</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>277</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H42" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>53772</v>
+        <v>4557</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>3</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4557</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M42" s="7">
-        <v>119</v>
-      </c>
-      <c r="N42" s="7">
-        <v>124669</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3565,49 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D43" s="7">
-        <v>82669</v>
+        <v>3501</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="G43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3</v>
+      </c>
+      <c r="I43" s="7">
+        <v>4138</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H43" s="7">
-        <v>67</v>
-      </c>
-      <c r="I43" s="7">
-        <v>71177</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>7</v>
+      </c>
+      <c r="N43" s="7">
+        <v>7639</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="M43" s="7">
-        <v>145</v>
-      </c>
-      <c r="N43" s="7">
-        <v>153846</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>287</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3616,49 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>2566</v>
+        <v>242</v>
       </c>
       <c r="D44" s="7">
-        <v>2697129</v>
+        <v>206465</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H44" s="7">
-        <v>2721</v>
+        <v>235</v>
       </c>
       <c r="I44" s="7">
-        <v>2904535</v>
+        <v>313567</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
-        <v>5287</v>
+        <v>477</v>
       </c>
       <c r="N44" s="7">
-        <v>5601664</v>
+        <v>520032</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,63 +3667,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>302</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>299</v>
+      </c>
+      <c r="I45" s="7">
+        <v>397759</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="7">
+        <v>601</v>
+      </c>
+      <c r="N45" s="7">
+        <v>654757</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>455</v>
+      </c>
+      <c r="D46" s="7">
+        <v>475255</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H46" s="7">
+        <v>438</v>
+      </c>
+      <c r="I46" s="7">
+        <v>455464</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M46" s="7">
+        <v>893</v>
+      </c>
+      <c r="N46" s="7">
+        <v>930719</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>63</v>
+      </c>
+      <c r="D47" s="7">
+        <v>64769</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H47" s="7">
+        <v>48</v>
+      </c>
+      <c r="I47" s="7">
+        <v>48260</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M47" s="7">
+        <v>111</v>
+      </c>
+      <c r="N47" s="7">
+        <v>113029</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>66</v>
+      </c>
+      <c r="D48" s="7">
+        <v>70897</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="7">
+        <v>53</v>
+      </c>
+      <c r="I48" s="7">
+        <v>53772</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M48" s="7">
+        <v>119</v>
+      </c>
+      <c r="N48" s="7">
+        <v>124669</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>78</v>
+      </c>
+      <c r="D49" s="7">
+        <v>82669</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="7">
+        <v>67</v>
+      </c>
+      <c r="I49" s="7">
+        <v>71177</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M49" s="7">
+        <v>145</v>
+      </c>
+      <c r="N49" s="7">
+        <v>153846</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2566</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2697129</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2721</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2904536</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M50" s="7">
+        <v>5287</v>
+      </c>
+      <c r="N50" s="7">
+        <v>5601664</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3228</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3390718</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>3327</v>
       </c>
-      <c r="I45" s="7">
-        <v>3533208</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3533209</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>6555</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6923926</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>297</v>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
